--- a/data/trans_orig/IP07A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A04-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE8945BC-1CF3-4B00-BC45-3740AF79B342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{732CD99B-75A5-4A41-8E98-81F4289D90BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C274582-50FE-4206-B86C-EFA3EDD45DE1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FADC370F-4253-4138-9E03-EDF93279A614}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="733">
   <si>
     <t>Menores según frecuencia de preocuparse por su aspecto en 2007 (Tasa respuesta: 47,15%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -79,2125 +79,2164 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,78%</t>
+    <t>31,69%</t>
   </si>
   <si>
     <t>21,99%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
     <t>5,57%</t>
   </si>
   <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
     <t>29,33%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de preocuparse por su aspecto en 2016 (Tasa respuesta: 47,22%)</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de preocuparse por su aspecto en 2015 (Tasa respuesta: 47,22%)</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
+    <t>24,39%</t>
   </si>
   <si>
     <t>23,52%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
   </si>
 </sst>
 </file>
@@ -2609,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBD4D00-942E-4988-82F9-1C12D568CAFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B2B612-18EF-4BB3-9936-B7CB741254AA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2904,10 +2943,10 @@
         <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2916,19 +2955,19 @@
         <v>5755</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -2937,13 +2976,13 @@
         <v>3007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2955,10 +2994,10 @@
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2967,13 +3006,13 @@
         <v>3007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +3027,13 @@
         <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
@@ -3003,13 +3042,13 @@
         <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>37</v>
@@ -3018,18 +3057,18 @@
         <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3041,13 +3080,13 @@
         <v>4014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3056,13 +3095,13 @@
         <v>8751</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3071,13 +3110,13 @@
         <v>12764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3131,13 @@
         <v>14695</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3107,13 +3146,13 @@
         <v>9756</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -3122,13 +3161,13 @@
         <v>24451</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3182,13 @@
         <v>21751</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>25</v>
@@ -3158,13 +3197,13 @@
         <v>17521</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
@@ -3173,13 +3212,13 @@
         <v>39272</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3233,13 @@
         <v>13310</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3209,13 +3248,13 @@
         <v>5340</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -3224,19 +3263,19 @@
         <v>18650</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>22</v>
@@ -3245,13 +3284,13 @@
         <v>13230</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3260,13 +3299,13 @@
         <v>7610</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>34</v>
@@ -3275,13 +3314,13 @@
         <v>20840</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3335,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -3311,13 +3350,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -3326,18 +3365,18 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3349,13 +3388,13 @@
         <v>9020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -3364,13 +3403,13 @@
         <v>17517</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3379,13 +3418,13 @@
         <v>26538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3439,13 @@
         <v>17565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -3415,13 +3454,13 @@
         <v>29516</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>73</v>
@@ -3430,13 +3469,13 @@
         <v>47081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,13 +3490,13 @@
         <v>26918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>49</v>
@@ -3466,13 +3505,13 @@
         <v>30955</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -3481,13 +3520,13 @@
         <v>57873</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,13 +3541,13 @@
         <v>16803</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -3517,13 +3556,13 @@
         <v>10654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3532,19 +3571,19 @@
         <v>27457</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>42</v>
@@ -3553,13 +3592,13 @@
         <v>28251</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3568,13 +3607,13 @@
         <v>16003</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>67</v>
@@ -3583,13 +3622,13 @@
         <v>44254</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3643,13 @@
         <v>98557</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>165</v>
@@ -3619,13 +3658,13 @@
         <v>104646</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>315</v>
@@ -3634,18 +3673,18 @@
         <v>203203</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3657,13 +3696,13 @@
         <v>10497</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -3672,13 +3711,13 @@
         <v>15248</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3687,13 +3726,13 @@
         <v>25745</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3708,13 +3747,13 @@
         <v>8911</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -3723,13 +3762,13 @@
         <v>13275</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>13</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -3738,13 +3777,13 @@
         <v>22185</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3759,13 +3798,13 @@
         <v>16857</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -3774,13 +3813,13 @@
         <v>15067</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>51</v>
@@ -3789,13 +3828,13 @@
         <v>31925</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,13 +3849,13 @@
         <v>12760</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -3825,13 +3864,13 @@
         <v>6923</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>32</v>
@@ -3840,19 +3879,19 @@
         <v>19683</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>27</v>
@@ -3861,13 +3900,13 @@
         <v>16622</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -3876,13 +3915,13 @@
         <v>10544</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>44</v>
@@ -3891,13 +3930,13 @@
         <v>27166</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3951,13 @@
         <v>65647</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>100</v>
@@ -3927,13 +3966,13 @@
         <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>203</v>
@@ -3942,18 +3981,18 @@
         <v>126704</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3965,13 +4004,13 @@
         <v>13824</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
@@ -3980,13 +4019,13 @@
         <v>18041</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>42</v>
@@ -3995,13 +4034,13 @@
         <v>31865</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4055,13 @@
         <v>15207</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -4031,13 +4070,13 @@
         <v>21502</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -4046,13 +4085,13 @@
         <v>36709</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4106,13 @@
         <v>27494</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>37</v>
@@ -4082,13 +4121,13 @@
         <v>27989</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -4097,13 +4136,13 @@
         <v>55483</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4157,13 @@
         <v>20165</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>12</v>
@@ -4133,13 +4172,13 @@
         <v>8813</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -4148,19 +4187,19 @@
         <v>28977</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>32</v>
@@ -4169,13 +4208,13 @@
         <v>21686</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -4184,13 +4223,13 @@
         <v>14788</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M32" s="7">
         <v>51</v>
@@ -4199,13 +4238,13 @@
         <v>36474</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4259,13 @@
         <v>98376</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>119</v>
@@ -4235,13 +4274,13 @@
         <v>91133</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>262</v>
@@ -4250,13 +4289,13 @@
         <v>189508</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4312,13 @@
         <v>38152</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>93</v>
@@ -4288,13 +4327,13 @@
         <v>62864</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>149</v>
@@ -4303,13 +4342,13 @@
         <v>101016</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4363,13 @@
         <v>61679</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
       <c r="H35" s="7">
         <v>117</v>
@@ -4339,13 +4378,13 @@
         <v>79584</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>209</v>
@@ -4354,13 +4393,13 @@
         <v>141264</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4375,13 +4414,13 @@
         <v>94627</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>141</v>
@@ -4390,13 +4429,13 @@
         <v>95076</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>282</v>
@@ -4405,13 +4444,13 @@
         <v>189703</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4465,13 @@
         <v>66141</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
@@ -4441,13 +4480,13 @@
         <v>34382</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>152</v>
@@ -4456,19 +4495,19 @@
         <v>100523</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>264</v>
+        <v>137</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>127</v>
@@ -4477,13 +4516,13 @@
         <v>82796</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>73</v>
@@ -4492,13 +4531,13 @@
         <v>48946</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>200</v>
@@ -4507,13 +4546,13 @@
         <v>131742</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4567,13 @@
         <v>343395</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
@@ -4543,13 +4582,13 @@
         <v>320852</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>992</v>
@@ -4558,18 +4597,18 @@
         <v>664247</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4590,7 +4629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEE2D38-D12C-4155-9DFC-660662B3CE5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C920D83-95BA-4ECA-BAB7-84075AFD64AC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4607,7 +4646,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4714,13 +4753,13 @@
         <v>1713</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4729,13 +4768,13 @@
         <v>4971</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -4744,13 +4783,13 @@
         <v>6684</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4765,13 +4804,13 @@
         <v>2482</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4780,13 +4819,13 @@
         <v>1796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -4795,13 +4834,13 @@
         <v>4278</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4855,13 @@
         <v>4657</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4831,13 +4870,13 @@
         <v>1796</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4846,13 +4885,13 @@
         <v>6453</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4906,13 @@
         <v>2694</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4882,13 +4921,13 @@
         <v>1539</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4897,19 +4936,19 @@
         <v>4234</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>18</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -4918,13 +4957,13 @@
         <v>2944</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -4933,13 +4972,13 @@
         <v>1841</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -4948,13 +4987,13 @@
         <v>4785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +5008,13 @@
         <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -4984,13 +5023,13 @@
         <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -4999,18 +5038,18 @@
         <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5022,13 +5061,13 @@
         <v>7767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -5037,13 +5076,13 @@
         <v>10812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -5052,13 +5091,13 @@
         <v>18579</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,13 +5112,13 @@
         <v>12478</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5088,13 +5127,13 @@
         <v>9741</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -5103,13 +5142,13 @@
         <v>22219</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5163,13 @@
         <v>12563</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -5139,13 +5178,13 @@
         <v>12914</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>36</v>
@@ -5154,13 +5193,13 @@
         <v>25477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5214,13 @@
         <v>8201</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5190,13 +5229,13 @@
         <v>10013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>299</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -5205,19 +5244,19 @@
         <v>18214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>24</v>
@@ -5226,13 +5265,13 @@
         <v>17166</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -5241,13 +5280,13 @@
         <v>10203</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -5256,13 +5295,13 @@
         <v>27369</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5316,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -5292,13 +5331,13 @@
         <v>53683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -5307,18 +5346,18 @@
         <v>111857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5330,13 +5369,13 @@
         <v>16865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -5345,13 +5384,13 @@
         <v>18653</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
@@ -5360,13 +5399,13 @@
         <v>35518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,13 +5420,13 @@
         <v>13569</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5396,13 +5435,13 @@
         <v>16001</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>46</v>
@@ -5411,13 +5450,13 @@
         <v>29569</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5471,13 @@
         <v>21638</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -5447,13 +5486,13 @@
         <v>28507</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -5462,13 +5501,13 @@
         <v>50145</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5522,13 @@
         <v>13737</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -5498,13 +5537,13 @@
         <v>14140</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -5513,19 +5552,19 @@
         <v>27877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>44</v>
@@ -5534,13 +5573,13 @@
         <v>30756</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -5549,13 +5588,13 @@
         <v>21258</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -5564,13 +5603,13 @@
         <v>52014</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>396</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5624,13 @@
         <v>96566</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>149</v>
@@ -5600,13 +5639,13 @@
         <v>98559</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>293</v>
@@ -5615,18 +5654,18 @@
         <v>195124</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5638,13 +5677,13 @@
         <v>12944</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -5653,13 +5692,13 @@
         <v>17428</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5668,13 +5707,13 @@
         <v>30372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5728,13 @@
         <v>14850</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -5704,13 +5743,13 @@
         <v>13869</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="M23" s="7">
         <v>44</v>
@@ -5719,13 +5758,13 @@
         <v>28719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>259</v>
+        <v>413</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5779,13 @@
         <v>16308</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -5755,13 +5794,13 @@
         <v>14681</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>418</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="M24" s="7">
         <v>49</v>
@@ -5770,13 +5809,13 @@
         <v>30989</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>410</v>
+        <v>127</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5830,13 @@
         <v>8132</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5806,13 +5845,13 @@
         <v>6643</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -5821,19 +5860,19 @@
         <v>14775</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>310</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>26</v>
@@ -5842,13 +5881,13 @@
         <v>16682</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -5857,13 +5896,13 @@
         <v>13902</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>47</v>
@@ -5872,13 +5911,13 @@
         <v>30584</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,13 +5932,13 @@
         <v>68917</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>102</v>
@@ -5908,13 +5947,13 @@
         <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>211</v>
@@ -5923,18 +5962,18 @@
         <v>135441</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5946,13 +5985,13 @@
         <v>17421</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>120</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="H28" s="7">
         <v>36</v>
@@ -5961,13 +6000,13 @@
         <v>27657</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="M28" s="7">
         <v>60</v>
@@ -5976,13 +6015,13 @@
         <v>45078</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>237</v>
+        <v>447</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6036,13 @@
         <v>14624</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>439</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -6012,13 +6051,13 @@
         <v>23836</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="M29" s="7">
         <v>50</v>
@@ -6027,13 +6066,13 @@
         <v>38460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>443</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6087,13 @@
         <v>25144</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>46</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -6063,13 +6102,13 @@
         <v>26648</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>227</v>
+        <v>457</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="M30" s="7">
         <v>69</v>
@@ -6078,13 +6117,13 @@
         <v>51792</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>449</v>
+        <v>122</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6138,13 @@
         <v>15420</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -6114,13 +6153,13 @@
         <v>4869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -6129,19 +6168,19 @@
         <v>20289</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>460</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>28</v>
@@ -6150,13 +6189,13 @@
         <v>20521</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6165,13 +6204,13 @@
         <v>8316</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M32" s="7">
         <v>39</v>
@@ -6180,13 +6219,13 @@
         <v>28838</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6240,13 @@
         <v>93130</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>117</v>
@@ -6216,13 +6255,13 @@
         <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>245</v>
@@ -6231,13 +6270,13 @@
         <v>184457</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6293,13 @@
         <v>56710</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>469</v>
+        <v>107</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H34" s="7">
         <v>111</v>
@@ -6269,13 +6308,13 @@
         <v>79522</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>471</v>
+        <v>212</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>473</v>
+        <v>346</v>
       </c>
       <c r="M34" s="7">
         <v>196</v>
@@ -6284,13 +6323,13 @@
         <v>136231</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>475</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,13 +6344,13 @@
         <v>58003</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H35" s="7">
         <v>92</v>
@@ -6320,13 +6359,13 @@
         <v>65242</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="M35" s="7">
         <v>178</v>
@@ -6335,13 +6374,13 @@
         <v>123245</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>117</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6395,13 @@
         <v>80310</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H36" s="7">
         <v>120</v>
@@ -6371,13 +6410,13 @@
         <v>84546</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>395</v>
+        <v>492</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>487</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>237</v>
@@ -6386,13 +6425,13 @@
         <v>164856</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6407,13 +6446,13 @@
         <v>48185</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>327</v>
+        <v>498</v>
       </c>
       <c r="H37" s="7">
         <v>54</v>
@@ -6422,13 +6461,13 @@
         <v>37204</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>194</v>
+        <v>500</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="M37" s="7">
         <v>123</v>
@@ -6437,19 +6476,19 @@
         <v>85389</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>125</v>
@@ -6458,13 +6497,13 @@
         <v>88069</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>499</v>
+        <v>349</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="H38" s="7">
         <v>80</v>
@@ -6473,13 +6512,13 @@
         <v>55521</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>106</v>
+        <v>508</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="M38" s="7">
         <v>205</v>
@@ -6488,13 +6527,13 @@
         <v>143590</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>351</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6548,13 @@
         <v>331277</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>457</v>
@@ -6524,13 +6563,13 @@
         <v>322036</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>939</v>
@@ -6539,18 +6578,18 @@
         <v>653312</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -6571,7 +6610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E23B2CC-69D8-4AFD-9E4D-7D0F1F40105D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEBC29D-A65D-42D4-A695-FA23694C5378}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6588,7 +6627,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6695,13 +6734,13 @@
         <v>5102</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -6710,13 +6749,13 @@
         <v>3849</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -6725,13 +6764,13 @@
         <v>8950</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>511</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,13 +6785,13 @@
         <v>1856</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6761,13 +6800,13 @@
         <v>2484</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6776,13 +6815,13 @@
         <v>4339</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6836,13 @@
         <v>2154</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6812,13 +6851,13 @@
         <v>4264</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6827,13 +6866,13 @@
         <v>6418</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>526</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,13 +6887,13 @@
         <v>2125</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6866,10 +6905,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -6878,19 +6917,19 @@
         <v>2125</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>541</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -6899,13 +6938,13 @@
         <v>3077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -6914,13 +6953,13 @@
         <v>3330</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -6929,13 +6968,13 @@
         <v>6407</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6989,13 @@
         <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -6965,13 +7004,13 @@
         <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>32</v>
@@ -6980,18 +7019,18 @@
         <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7003,13 +7042,13 @@
         <v>6650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -7018,13 +7057,13 @@
         <v>14663</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -7033,13 +7072,13 @@
         <v>21314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>551</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7093,13 @@
         <v>13125</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -7069,13 +7108,13 @@
         <v>9634</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -7084,13 +7123,13 @@
         <v>22759</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7144,13 @@
         <v>5368</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>559</v>
+        <v>500</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>348</v>
+        <v>569</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -7120,13 +7159,13 @@
         <v>12063</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="M12" s="7">
         <v>24</v>
@@ -7135,13 +7174,13 @@
         <v>17431</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7156,13 +7195,13 @@
         <v>16022</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>331</v>
+        <v>575</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>393</v>
+        <v>576</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -7171,13 +7210,13 @@
         <v>7515</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -7186,19 +7225,19 @@
         <v>23536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>23</v>
@@ -7207,13 +7246,13 @@
         <v>18148</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>573</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -7222,13 +7261,13 @@
         <v>12353</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>371</v>
+        <v>586</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -7237,13 +7276,13 @@
         <v>30501</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,13 +7297,13 @@
         <v>59313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -7273,13 +7312,13 @@
         <v>56228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -7288,18 +7327,18 @@
         <v>115541</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7311,13 +7350,13 @@
         <v>22137</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -7326,13 +7365,13 @@
         <v>23617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -7341,13 +7380,13 @@
         <v>45754</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7362,13 +7401,13 @@
         <v>17873</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>590</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>591</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -7377,13 +7416,13 @@
         <v>24747</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>604</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -7392,13 +7431,13 @@
         <v>42620</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,13 +7452,13 @@
         <v>16015</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>502</v>
+        <v>610</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -7428,13 +7467,13 @@
         <v>23042</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>412</v>
+        <v>613</v>
       </c>
       <c r="M18" s="7">
         <v>59</v>
@@ -7443,13 +7482,13 @@
         <v>39056</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>489</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,13 +7503,13 @@
         <v>23647</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>371</v>
+        <v>586</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>603</v>
+        <v>262</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -7479,13 +7518,13 @@
         <v>15777</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -7494,19 +7533,19 @@
         <v>39424</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>39</v>
@@ -7515,13 +7554,13 @@
         <v>27977</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>622</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -7530,13 +7569,13 @@
         <v>18897</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>393</v>
+        <v>624</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -7545,13 +7584,13 @@
         <v>46875</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>613</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7605,13 @@
         <v>107649</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>161</v>
@@ -7581,13 +7620,13 @@
         <v>106080</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>316</v>
@@ -7596,18 +7635,18 @@
         <v>213729</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7619,13 +7658,13 @@
         <v>13969</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -7634,13 +7673,13 @@
         <v>16916</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="M22" s="7">
         <v>46</v>
@@ -7649,13 +7688,13 @@
         <v>30885</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>563</v>
+        <v>634</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7670,13 +7709,13 @@
         <v>13144</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="H23" s="7">
         <v>24</v>
@@ -7685,13 +7724,13 @@
         <v>15785</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>528</v>
+        <v>640</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="M23" s="7">
         <v>42</v>
@@ -7700,13 +7739,13 @@
         <v>28929</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7760,13 @@
         <v>20155</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>628</v>
+        <v>645</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>629</v>
+        <v>646</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>630</v>
+        <v>647</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -7736,13 +7775,13 @@
         <v>14687</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>425</v>
+        <v>648</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>632</v>
+        <v>649</v>
       </c>
       <c r="M24" s="7">
         <v>52</v>
@@ -7751,13 +7790,13 @@
         <v>34842</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>633</v>
+        <v>650</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7811,13 @@
         <v>9297</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>636</v>
+        <v>72</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>637</v>
+        <v>653</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>638</v>
+        <v>654</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -7787,13 +7826,13 @@
         <v>8679</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>639</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -7802,19 +7841,19 @@
         <v>17976</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>30</v>
@@ -7823,13 +7862,13 @@
         <v>21377</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>581</v>
+        <v>660</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>645</v>
+        <v>661</v>
       </c>
       <c r="H26" s="7">
         <v>23</v>
@@ -7838,13 +7877,13 @@
         <v>15643</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>647</v>
+        <v>561</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -7853,13 +7892,13 @@
         <v>37021</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7913,13 @@
         <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>111</v>
@@ -7889,13 +7928,13 @@
         <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>220</v>
@@ -7904,18 +7943,18 @@
         <v>149653</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7927,13 +7966,13 @@
         <v>18452</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="H28" s="7">
         <v>33</v>
@@ -7945,10 +7984,10 @@
         <v>33</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>428</v>
+        <v>670</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="M28" s="7">
         <v>58</v>
@@ -7957,13 +7996,13 @@
         <v>43801</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>656</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +8017,13 @@
         <v>17516</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -7993,13 +8032,13 @@
         <v>21313</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>661</v>
+        <v>578</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -8008,13 +8047,13 @@
         <v>38829</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8068,13 @@
         <v>20796</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>668</v>
+        <v>84</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -8044,13 +8083,13 @@
         <v>21093</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="M30" s="7">
         <v>57</v>
@@ -8059,13 +8098,13 @@
         <v>41889</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8119,13 @@
         <v>21031</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>193</v>
+        <v>688</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -8095,13 +8134,13 @@
         <v>16390</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
@@ -8110,19 +8149,19 @@
         <v>37421</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>680</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>32</v>
@@ -8131,13 +8170,13 @@
         <v>24347</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>683</v>
+        <v>357</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -8146,13 +8185,13 @@
         <v>23447</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>685</v>
+        <v>291</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="M32" s="7">
         <v>63</v>
@@ -8161,13 +8200,13 @@
         <v>47794</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>489</v>
+        <v>698</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8221,13 @@
         <v>102142</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>141</v>
@@ -8197,13 +8236,13 @@
         <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>279</v>
@@ -8212,13 +8251,13 @@
         <v>209734</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8274,13 @@
         <v>66311</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>576</v>
+        <v>702</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="H34" s="7">
         <v>119</v>
@@ -8250,13 +8289,13 @@
         <v>84393</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="M34" s="7">
         <v>210</v>
@@ -8265,13 +8304,13 @@
         <v>150703</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>695</v>
+        <v>651</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8286,13 +8325,13 @@
         <v>63514</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>112</v>
+        <v>709</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>698</v>
+        <v>74</v>
       </c>
       <c r="H35" s="7">
         <v>106</v>
@@ -8301,13 +8340,13 @@
         <v>73964</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>699</v>
+        <v>481</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="M35" s="7">
         <v>193</v>
@@ -8316,13 +8355,13 @@
         <v>137477</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>684</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,10 +8379,10 @@
         <v>36</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H36" s="7">
         <v>108</v>
@@ -8352,13 +8391,13 @@
         <v>75148</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="M36" s="7">
         <v>198</v>
@@ -8367,13 +8406,13 @@
         <v>139636</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>588</v>
+        <v>720</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>408</v>
+        <v>721</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8388,13 +8427,13 @@
         <v>72122</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>452</v>
+        <v>723</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>475</v>
+        <v>33</v>
       </c>
       <c r="H37" s="7">
         <v>70</v>
@@ -8403,13 +8442,13 @@
         <v>48361</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>621</v>
+        <v>726</v>
       </c>
       <c r="M37" s="7">
         <v>170</v>
@@ -8418,19 +8457,19 @@
         <v>120483</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>712</v>
+        <v>496</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>713</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>128</v>
@@ -8439,13 +8478,13 @@
         <v>94927</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>715</v>
+        <v>167</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
       <c r="H38" s="7">
         <v>105</v>
@@ -8454,13 +8493,13 @@
         <v>73670</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>210</v>
+        <v>729</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>717</v>
+        <v>288</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="M38" s="7">
         <v>233</v>
@@ -8469,13 +8508,13 @@
         <v>168597</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>424</v>
+        <v>717</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>578</v>
+        <v>732</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8490,13 +8529,13 @@
         <v>361361</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>508</v>
@@ -8505,13 +8544,13 @@
         <v>355536</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>1004</v>
@@ -8520,18 +8559,18 @@
         <v>716897</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
